--- a/iselUssSyncV2/OutputWSLorientation/20220524_1342_D50L474W30Q17.0U0.35H61.7G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1342_D50L474W30Q17.0U0.35H61.7G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.48433842282618689</v>
+        <v>0.27691971471199933</v>
       </c>
       <c r="P2" s="0">
         <v>204.0806399999999</v>
@@ -356,10 +356,10 @@
         <v>2.0020310783999991</v>
       </c>
       <c r="R2" s="0">
-        <v>1.3997596409133741</v>
+        <v>2.4482091407642073</v>
       </c>
       <c r="S2" s="0">
-        <v>0.37220569391221864</v>
+        <v>1.2800341505074493</v>
       </c>
       <c r="T2" s="0">
         <v>0.036140283158818703</v>
@@ -383,16 +383,16 @@
         <v>160000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.4302677544650662</v>
+        <v>0.81775328956376092</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.3788298006858541</v>
+        <v>1.5640450511467414</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.2661901153509958</v>
+        <v>1.6330950576754979</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.2545615282240554</v>
+        <v>1.6272807641120277</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>8.6450199160368495</v>
+        <v>3.1971401088222393</v>
       </c>
     </row>
   </sheetData>
